--- a/test/schedule.xlsx
+++ b/test/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -454,7 +454,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -521,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -743,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="n">
         <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
@@ -797,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11" t="n">
         <f aca="false">IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>

--- a/test/schedule.xlsx
+++ b/test/schedule.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22010"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E503FE448D0C083E6BCEC2F86364E670DA4BD5C9" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C233BF38-998A-47E9-BD56-39419E06E041}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="schedule" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -23,134 +29,115 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
-    <t xml:space="preserve">parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">説明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">run_unit_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール実行単位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all_run_robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">割り当て可能ロボット総数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifiedtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JobStartTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JobEndTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケジュール10</t>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>run_unit_time</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>スケジュール実行単位</t>
+  </si>
+  <si>
+    <t>all_run_robot</t>
+  </si>
+  <si>
+    <t>割り当て可能ロボット総数</t>
+  </si>
+  <si>
+    <t>jobname</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>Specifiedtime</t>
+  </si>
+  <si>
+    <t>JobStartTime</t>
+  </si>
+  <si>
+    <t>JobEndTime</t>
+  </si>
+  <si>
+    <t>0:00</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>0:30</t>
+  </si>
+  <si>
+    <t>0:45</t>
+  </si>
+  <si>
+    <t>1:00</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>1:30</t>
+  </si>
+  <si>
+    <t>1:45</t>
+  </si>
+  <si>
+    <t>2:00</t>
+  </si>
+  <si>
+    <t>スケジュール1</t>
+  </si>
+  <si>
+    <t>スケジュール2</t>
+  </si>
+  <si>
+    <t>スケジュール3</t>
+  </si>
+  <si>
+    <t>スケジュール4</t>
+  </si>
+  <si>
+    <t>スケジュール5</t>
+  </si>
+  <si>
+    <t>スケジュール6</t>
+  </si>
+  <si>
+    <t>スケジュール7</t>
+  </si>
+  <si>
+    <t>スケジュール8</t>
+  </si>
+  <si>
+    <t>スケジュール9</t>
+  </si>
+  <si>
+    <t>スケジュール10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,214 +149,260 @@
     </fill>
   </fills>
   <borders count="15">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -384,6 +417,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -442,72 +476,379 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.14"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="1025" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" ht="12.75">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -515,24 +856,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.14"/>
+    <col min="1" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="1025" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -576,15 +914,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
+      <c r="C2" s="7" t="b">
+        <f>IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -594,51 +932,51 @@
         <v>18</v>
       </c>
       <c r="F2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <f>IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
         <v/>
       </c>
       <c r="G2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="H2" s="10" t="n">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <f>IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H2" s="10">
+        <f>IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <f>IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
         <v>1</v>
       </c>
       <c r="J2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <f>IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
         <v/>
       </c>
       <c r="K2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <f>IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
         <v/>
       </c>
       <c r="L2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <f>IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
         <v/>
       </c>
       <c r="M2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <f>IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
         <v/>
       </c>
       <c r="N2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="11">
         <v>60</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <f aca="false">IF($B3&lt;&gt;"",AND($D3&lt;&gt;"",$E3&lt;&gt;""),"")</f>
+      <c r="C3" s="11" t="b">
+        <f>IF($B3&lt;&gt;"",AND($D3&lt;&gt;"",$E3&lt;&gt;""),"")</f>
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -648,51 +986,51 @@
         <v>21</v>
       </c>
       <c r="F3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <f>IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
         <v/>
       </c>
       <c r="G3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <f>IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
         <v/>
       </c>
       <c r="H3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-      <c r="I3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <f>IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I3" s="10">
+        <f>IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <f>IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <f>IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <f>IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
         <v>1</v>
       </c>
       <c r="M3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <f>IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
         <v/>
       </c>
       <c r="N3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="11">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="n">
-        <f aca="false">IF($B4&lt;&gt;"",AND($D4&lt;&gt;"",$E4&lt;&gt;""),"")</f>
+      <c r="C4" s="11" t="b">
+        <f>IF($B4&lt;&gt;"",AND($D4&lt;&gt;"",$E4&lt;&gt;""),"")</f>
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -702,51 +1040,51 @@
         <v>16</v>
       </c>
       <c r="F4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="G4" s="10" t="n">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <f>IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G4" s="10">
+        <f>IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
         <v>1</v>
       </c>
       <c r="H4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <f>IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
         <v/>
       </c>
       <c r="I4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <f>IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
         <v/>
       </c>
       <c r="J4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <f>IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
         <v/>
       </c>
       <c r="K4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <f>IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
         <v/>
       </c>
       <c r="L4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <f>IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
         <v/>
       </c>
       <c r="M4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <f>IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
         <v/>
       </c>
       <c r="N4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.75">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="11">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="n">
-        <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
+      <c r="C5" s="11" t="b">
+        <f>IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -755,52 +1093,52 @@
       <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D5),TIMEVALUE(F$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D5),TIMEVALUE(G$1)&lt;TIMEVALUE($E5)),1,""))</f>
+      <c r="F5" s="10">
+        <f>IF($D5="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D5),TIMEVALUE(F$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <f>IF($D5="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D5),TIMEVALUE(G$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v>1</v>
       </c>
       <c r="H5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D5),TIMEVALUE(H$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <f>IF($D5="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D5),TIMEVALUE(H$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
       <c r="I5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D5),TIMEVALUE(I$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <f>IF($D5="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D5),TIMEVALUE(I$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
       <c r="J5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D5),TIMEVALUE(J$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <f>IF($D5="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D5),TIMEVALUE(J$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
       <c r="K5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D5),TIMEVALUE(K$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <f>IF($D5="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D5),TIMEVALUE(K$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
       <c r="L5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D5),TIMEVALUE(L$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <f>IF($D5="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D5),TIMEVALUE(L$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
       <c r="M5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D5),TIMEVALUE(M$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <f>IF($D5="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D5),TIMEVALUE(M$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
       <c r="N5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D5),TIMEVALUE(N$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D5="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D5),TIMEVALUE(N$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="11">
         <v>60</v>
       </c>
-      <c r="C6" s="11" t="n">
-        <f aca="false">IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>
+      <c r="C6" s="11" t="b">
+        <f>IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -810,624 +1148,623 @@
         <v>22</v>
       </c>
       <c r="F6" s="10" t="str">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D6),TIMEVALUE(F$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <f>IF($D6="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D6),TIMEVALUE(F$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
       <c r="G6" s="10" t="str">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D6),TIMEVALUE(G$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <f>IF($D6="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D6),TIMEVALUE(G$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
       <c r="H6" s="10" t="str">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D6),TIMEVALUE(H$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <f>IF($D6="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D6),TIMEVALUE(H$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
       <c r="I6" s="10" t="str">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D6),TIMEVALUE(I$1)&lt;TIMEVALUE($E6)),1,""))</f>
-        <v/>
-      </c>
-      <c r="J6" s="10" t="n">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D6),TIMEVALUE(J$1)&lt;TIMEVALUE($E6)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="10" t="n">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D6),TIMEVALUE(K$1)&lt;TIMEVALUE($E6)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D6),TIMEVALUE(L$1)&lt;TIMEVALUE($E6)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="10" t="n">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D6),TIMEVALUE(M$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <f>IF($D6="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D6),TIMEVALUE(I$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J6" s="10">
+        <f>IF($D6="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D6),TIMEVALUE(J$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <f>IF($D6="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D6),TIMEVALUE(K$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="10">
+        <f>IF($D6="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D6),TIMEVALUE(L$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <f>IF($D6="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D6),TIMEVALUE(M$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v>1</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D6),TIMEVALUE(N$1)&lt;TIMEVALUE($E6)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D6="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D6),TIMEVALUE(N$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="11">
         <v>45</v>
       </c>
-      <c r="C7" s="11" t="n">
-        <f aca="false">IF($B7&lt;&gt;"",AND($D7&lt;&gt;"",$E7&lt;&gt;""),"")</f>
+      <c r="C7" s="11" t="b">
+        <f>IF($B7&lt;&gt;"",AND($D7&lt;&gt;"",$E7&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D7),TIMEVALUE(F$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <f>IF($D7="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D7),TIMEVALUE(F$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
       <c r="G7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D7),TIMEVALUE(G$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <f>IF($D7="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D7),TIMEVALUE(G$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
       <c r="H7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D7),TIMEVALUE(H$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <f>IF($D7="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D7),TIMEVALUE(H$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
       <c r="I7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D7),TIMEVALUE(I$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <f>IF($D7="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D7),TIMEVALUE(I$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
       <c r="J7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D7),TIMEVALUE(J$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <f>IF($D7="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D7),TIMEVALUE(J$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
       <c r="K7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D7),TIMEVALUE(K$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <f>IF($D7="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D7),TIMEVALUE(K$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
       <c r="L7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D7),TIMEVALUE(L$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <f>IF($D7="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D7),TIMEVALUE(L$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
       <c r="M7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D7),TIMEVALUE(M$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <f>IF($D7="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D7),TIMEVALUE(M$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
       <c r="N7" s="10" t="str">
-        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D7),TIMEVALUE(N$1)&lt;TIMEVALUE($E7)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D7="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D7),TIMEVALUE(N$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75">
       <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="11">
         <v>30</v>
       </c>
-      <c r="C8" s="11" t="n">
-        <f aca="false">IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
+      <c r="C8" s="11" t="b">
+        <f>IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
       <c r="F8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D8),TIMEVALUE(F$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <f>IF($D8="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D8),TIMEVALUE(F$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
       <c r="G8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D8),TIMEVALUE(G$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <f>IF($D8="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D8),TIMEVALUE(G$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
       <c r="H8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D8),TIMEVALUE(H$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <f>IF($D8="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D8),TIMEVALUE(H$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
       <c r="I8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D8),TIMEVALUE(I$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <f>IF($D8="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D8),TIMEVALUE(I$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
       <c r="J8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D8),TIMEVALUE(J$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <f>IF($D8="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D8),TIMEVALUE(J$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
       <c r="K8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D8),TIMEVALUE(K$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <f>IF($D8="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D8),TIMEVALUE(K$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
       <c r="L8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D8),TIMEVALUE(L$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <f>IF($D8="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D8),TIMEVALUE(L$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
       <c r="M8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D8),TIMEVALUE(M$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <f>IF($D8="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D8),TIMEVALUE(M$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
       <c r="N8" s="10" t="str">
-        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D8),TIMEVALUE(N$1)&lt;TIMEVALUE($E8)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D8="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D8),TIMEVALUE(N$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="11">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="n">
-        <f aca="false">IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
+      <c r="C9" s="11" t="b">
+        <f>IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
       <c r="F9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D9),TIMEVALUE(F$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <f>IF($D9="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D9),TIMEVALUE(F$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
       <c r="G9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D9),TIMEVALUE(G$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <f>IF($D9="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D9),TIMEVALUE(G$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
       <c r="H9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D9),TIMEVALUE(H$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <f>IF($D9="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D9),TIMEVALUE(H$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
       <c r="I9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D9),TIMEVALUE(I$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <f>IF($D9="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D9),TIMEVALUE(I$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
       <c r="J9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D9),TIMEVALUE(J$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <f>IF($D9="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D9),TIMEVALUE(J$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
       <c r="K9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D9),TIMEVALUE(K$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <f>IF($D9="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D9),TIMEVALUE(K$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
       <c r="L9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D9),TIMEVALUE(L$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <f>IF($D9="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D9),TIMEVALUE(L$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
       <c r="M9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D9),TIMEVALUE(M$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <f>IF($D9="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D9),TIMEVALUE(M$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
       <c r="N9" s="10" t="str">
-        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D9),TIMEVALUE(N$1)&lt;TIMEVALUE($E9)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D9="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D9),TIMEVALUE(N$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75">
       <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="11">
         <v>60</v>
       </c>
-      <c r="C10" s="11" t="n">
-        <f aca="false">IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
+      <c r="C10" s="11" t="b">
+        <f>IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D10),TIMEVALUE(F$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <f>IF($D10="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D10),TIMEVALUE(F$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
       <c r="G10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D10),TIMEVALUE(G$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <f>IF($D10="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D10),TIMEVALUE(G$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
       <c r="H10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D10),TIMEVALUE(H$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <f>IF($D10="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D10),TIMEVALUE(H$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
       <c r="I10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D10),TIMEVALUE(I$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <f>IF($D10="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D10),TIMEVALUE(I$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
       <c r="J10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D10),TIMEVALUE(J$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <f>IF($D10="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D10),TIMEVALUE(J$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
       <c r="K10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D10),TIMEVALUE(K$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <f>IF($D10="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D10),TIMEVALUE(K$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
       <c r="L10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D10),TIMEVALUE(L$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <f>IF($D10="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D10),TIMEVALUE(L$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
       <c r="M10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D10),TIMEVALUE(M$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <f>IF($D10="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D10),TIMEVALUE(M$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
       <c r="N10" s="10" t="str">
-        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D10),TIMEVALUE(N$1)&lt;TIMEVALUE($E10)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D10="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D10),TIMEVALUE(N$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75">
       <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="11">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="n">
-        <f aca="false">IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
+      <c r="C11" s="11" t="b">
+        <f>IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
       <c r="F11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D11),TIMEVALUE(F$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <f>IF($D11="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D11),TIMEVALUE(F$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
       <c r="G11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D11),TIMEVALUE(G$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <f>IF($D11="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D11),TIMEVALUE(G$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
       <c r="H11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D11),TIMEVALUE(H$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <f>IF($D11="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D11),TIMEVALUE(H$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
       <c r="I11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D11),TIMEVALUE(I$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <f>IF($D11="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D11),TIMEVALUE(I$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
       <c r="J11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D11),TIMEVALUE(J$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <f>IF($D11="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D11),TIMEVALUE(J$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
       <c r="K11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D11),TIMEVALUE(K$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <f>IF($D11="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D11),TIMEVALUE(K$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
       <c r="L11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D11),TIMEVALUE(L$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <f>IF($D11="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D11),TIMEVALUE(L$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
       <c r="M11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D11),TIMEVALUE(M$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <f>IF($D11="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D11),TIMEVALUE(M$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
       <c r="N11" s="10" t="str">
-        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D11),TIMEVALUE(N$1)&lt;TIMEVALUE($E11)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D11="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D11),TIMEVALUE(N$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="str">
-        <f aca="false">IF($B12&lt;&gt;"",AND($D12&lt;&gt;"",$E12&lt;&gt;""),"")</f>
+        <f>IF($B12&lt;&gt;"",AND($D12&lt;&gt;"",$E12&lt;&gt;""),"")</f>
         <v/>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
       <c r="F12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D12),TIMEVALUE(F$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <f>IF($D12="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D12),TIMEVALUE(F$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
       <c r="G12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D12),TIMEVALUE(G$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <f>IF($D12="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D12),TIMEVALUE(G$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
       <c r="H12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D12),TIMEVALUE(H$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <f>IF($D12="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D12),TIMEVALUE(H$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
       <c r="I12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D12),TIMEVALUE(I$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <f>IF($D12="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D12),TIMEVALUE(I$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
       <c r="J12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D12),TIMEVALUE(J$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <f>IF($D12="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D12),TIMEVALUE(J$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
       <c r="K12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D12),TIMEVALUE(K$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <f>IF($D12="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D12),TIMEVALUE(K$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
       <c r="L12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D12),TIMEVALUE(L$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <f>IF($D12="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D12),TIMEVALUE(L$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
       <c r="M12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D12),TIMEVALUE(M$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <f>IF($D12="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D12),TIMEVALUE(M$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
       <c r="N12" s="10" t="str">
-        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D12),TIMEVALUE(N$1)&lt;TIMEVALUE($E12)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D12="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D12),TIMEVALUE(N$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="str">
-        <f aca="false">IF($B13&lt;&gt;"",AND($D13&lt;&gt;"",$E13&lt;&gt;""),"")</f>
+        <f>IF($B13&lt;&gt;"",AND($D13&lt;&gt;"",$E13&lt;&gt;""),"")</f>
         <v/>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D13),TIMEVALUE(F$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <f>IF($D13="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D13),TIMEVALUE(F$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
       <c r="G13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D13),TIMEVALUE(G$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <f>IF($D13="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D13),TIMEVALUE(G$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
       <c r="H13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D13),TIMEVALUE(H$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <f>IF($D13="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D13),TIMEVALUE(H$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
       <c r="I13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D13),TIMEVALUE(I$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <f>IF($D13="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D13),TIMEVALUE(I$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
       <c r="J13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D13),TIMEVALUE(J$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <f>IF($D13="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D13),TIMEVALUE(J$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
       <c r="K13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D13),TIMEVALUE(K$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <f>IF($D13="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D13),TIMEVALUE(K$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
       <c r="L13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D13),TIMEVALUE(L$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <f>IF($D13="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D13),TIMEVALUE(L$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
       <c r="M13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D13),TIMEVALUE(M$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <f>IF($D13="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D13),TIMEVALUE(M$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
       <c r="N13" s="10" t="str">
-        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D13),TIMEVALUE(N$1)&lt;TIMEVALUE($E13)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D13="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D13),TIMEVALUE(N$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="str">
-        <f aca="false">IF($B14&lt;&gt;"",AND($D14&lt;&gt;"",$E14&lt;&gt;""),"")</f>
+        <f>IF($B14&lt;&gt;"",AND($D14&lt;&gt;"",$E14&lt;&gt;""),"")</f>
         <v/>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D14),TIMEVALUE(F$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <f>IF($D14="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D14),TIMEVALUE(F$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
       <c r="G14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D14),TIMEVALUE(G$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <f>IF($D14="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D14),TIMEVALUE(G$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
       <c r="H14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D14),TIMEVALUE(H$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <f>IF($D14="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D14),TIMEVALUE(H$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
       <c r="I14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D14),TIMEVALUE(I$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <f>IF($D14="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D14),TIMEVALUE(I$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
       <c r="J14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D14),TIMEVALUE(J$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <f>IF($D14="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D14),TIMEVALUE(J$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
       <c r="K14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D14),TIMEVALUE(K$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <f>IF($D14="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D14),TIMEVALUE(K$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
       <c r="L14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D14),TIMEVALUE(L$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <f>IF($D14="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D14),TIMEVALUE(L$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
       <c r="M14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D14),TIMEVALUE(M$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <f>IF($D14="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D14),TIMEVALUE(M$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
       <c r="N14" s="10" t="str">
-        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D14),TIMEVALUE(N$1)&lt;TIMEVALUE($E14)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D14="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D14),TIMEVALUE(N$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="str">
-        <f aca="false">IF($B15&lt;&gt;"",AND($D15&lt;&gt;"",$E15&lt;&gt;""),"")</f>
+        <f>IF($B15&lt;&gt;"",AND($D15&lt;&gt;"",$E15&lt;&gt;""),"")</f>
         <v/>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D15),TIMEVALUE(F$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <f>IF($D15="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D15),TIMEVALUE(F$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
       <c r="G15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D15),TIMEVALUE(G$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <f>IF($D15="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D15),TIMEVALUE(G$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
       <c r="H15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D15),TIMEVALUE(H$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <f>IF($D15="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D15),TIMEVALUE(H$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
       <c r="I15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D15),TIMEVALUE(I$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <f>IF($D15="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D15),TIMEVALUE(I$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
       <c r="J15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D15),TIMEVALUE(J$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <f>IF($D15="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D15),TIMEVALUE(J$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
       <c r="K15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D15),TIMEVALUE(K$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <f>IF($D15="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D15),TIMEVALUE(K$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
       <c r="L15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D15),TIMEVALUE(L$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <f>IF($D15="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D15),TIMEVALUE(L$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
       <c r="M15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D15),TIMEVALUE(M$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <f>IF($D15="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D15),TIMEVALUE(M$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
       <c r="N15" s="10" t="str">
-        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D15),TIMEVALUE(N$1)&lt;TIMEVALUE($E15)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D15="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D15),TIMEVALUE(N$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="str">
-        <f aca="false">IF($B16&lt;&gt;"",AND($D16&lt;&gt;"",$E16&lt;&gt;""),"")</f>
+        <f>IF($B16&lt;&gt;"",AND($D16&lt;&gt;"",$E16&lt;&gt;""),"")</f>
         <v/>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D16),TIMEVALUE(F$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <f>IF($D16="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D16),TIMEVALUE(F$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
       <c r="G16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D16),TIMEVALUE(G$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <f>IF($D16="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D16),TIMEVALUE(G$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
       <c r="H16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D16),TIMEVALUE(H$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <f>IF($D16="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D16),TIMEVALUE(H$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
       <c r="I16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D16),TIMEVALUE(I$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <f>IF($D16="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D16),TIMEVALUE(I$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
       <c r="J16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D16),TIMEVALUE(J$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <f>IF($D16="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D16),TIMEVALUE(J$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
       <c r="K16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D16),TIMEVALUE(K$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <f>IF($D16="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D16),TIMEVALUE(K$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
       <c r="L16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D16),TIMEVALUE(L$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <f>IF($D16="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D16),TIMEVALUE(L$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
       <c r="M16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D16),TIMEVALUE(M$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <f>IF($D16="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D16),TIMEVALUE(M$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
       <c r="N16" s="10" t="str">
-        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D16),TIMEVALUE(N$1)&lt;TIMEVALUE($E16)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D16="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D16),TIMEVALUE(N$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="str">
-        <f aca="false">IF($B17&lt;&gt;"",AND($D17&lt;&gt;"",$E17&lt;&gt;""),"")</f>
+        <f>IF($B17&lt;&gt;"",AND($D17&lt;&gt;"",$E17&lt;&gt;""),"")</f>
         <v/>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D17),TIMEVALUE(F$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <f>IF($D17="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D17),TIMEVALUE(F$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
       <c r="G17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D17),TIMEVALUE(G$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <f>IF($D17="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D17),TIMEVALUE(G$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
       <c r="H17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D17),TIMEVALUE(H$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <f>IF($D17="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D17),TIMEVALUE(H$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
       <c r="I17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D17),TIMEVALUE(I$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <f>IF($D17="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D17),TIMEVALUE(I$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
       <c r="J17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D17),TIMEVALUE(J$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <f>IF($D17="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D17),TIMEVALUE(J$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
       <c r="K17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D17),TIMEVALUE(K$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <f>IF($D17="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D17),TIMEVALUE(K$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
       <c r="L17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D17),TIMEVALUE(L$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <f>IF($D17="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D17),TIMEVALUE(L$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
       <c r="M17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D17),TIMEVALUE(M$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <f>IF($D17="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D17),TIMEVALUE(M$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
       <c r="N17" s="10" t="str">
-        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D17),TIMEVALUE(N$1)&lt;TIMEVALUE($E17)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f>IF($D17="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D17),TIMEVALUE(N$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="11" t="str">
-        <f aca="false">IF($B18&lt;&gt;"",AND($D18&lt;&gt;"",$E18&lt;&gt;""),"")</f>
+        <f>IF($B18&lt;&gt;"",AND($D18&lt;&gt;"",$E18&lt;&gt;""),"")</f>
         <v/>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D18),TIMEVALUE(F$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D18),TIMEVALUE(F$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
       <c r="G18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D18),TIMEVALUE(G$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D18),TIMEVALUE(G$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
       <c r="H18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D18),TIMEVALUE(H$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D18),TIMEVALUE(H$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
       <c r="I18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D18),TIMEVALUE(I$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D18),TIMEVALUE(I$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
       <c r="J18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D18),TIMEVALUE(J$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D18),TIMEVALUE(J$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
       <c r="K18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D18),TIMEVALUE(K$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D18),TIMEVALUE(K$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
       <c r="L18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D18),TIMEVALUE(L$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D18),TIMEVALUE(L$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
       <c r="M18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D18),TIMEVALUE(M$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D18),TIMEVALUE(M$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
       <c r="N18" s="10" t="str">
-        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D18),TIMEVALUE(N$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <f>IF($D18="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D18),TIMEVALUE(N$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:N18">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>

--- a/test/schedule.xlsx
+++ b/test/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -454,8 +454,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -521,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test/schedule.xlsx
+++ b/test/schedule.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="schedule" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="schedule2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -126,9 +127,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -334,7 +336,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,13 +457,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="D4:E4 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,15 +522,13 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="D4:E4 F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,4 +1431,888 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I2" s="10" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J2" s="10" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K2" s="10" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L2" s="10" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M2" s="10" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N2" s="10" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G3" s="10" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="10" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N3" s="10" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G4" s="10" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="10" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N4" s="10" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D5),TIMEVALUE(F$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D5),TIMEVALUE(G$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D5),TIMEVALUE(H$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D5),TIMEVALUE(I$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D5),TIMEVALUE(J$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D5),TIMEVALUE(K$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D5),TIMEVALUE(L$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D5),TIMEVALUE(M$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N5" s="10" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D5),TIMEVALUE(N$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="str">
+        <f aca="false">IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D6),TIMEVALUE(F$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D6),TIMEVALUE(G$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D6),TIMEVALUE(H$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D6),TIMEVALUE(I$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D6),TIMEVALUE(J$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D6),TIMEVALUE(K$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D6),TIMEVALUE(L$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D6),TIMEVALUE(M$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N6" s="10" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D6),TIMEVALUE(N$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="str">
+        <f aca="false">IF($B7&lt;&gt;"",AND($D7&lt;&gt;"",$E7&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D7),TIMEVALUE(F$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D7),TIMEVALUE(G$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D7),TIMEVALUE(H$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D7),TIMEVALUE(I$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D7),TIMEVALUE(J$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D7),TIMEVALUE(K$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D7),TIMEVALUE(L$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D7),TIMEVALUE(M$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N7" s="10" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D7),TIMEVALUE(N$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="str">
+        <f aca="false">IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D8),TIMEVALUE(F$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D8),TIMEVALUE(G$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D8),TIMEVALUE(H$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D8),TIMEVALUE(I$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D8),TIMEVALUE(J$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D8),TIMEVALUE(K$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D8),TIMEVALUE(L$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D8),TIMEVALUE(M$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N8" s="10" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D8),TIMEVALUE(N$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="str">
+        <f aca="false">IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D9),TIMEVALUE(F$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D9),TIMEVALUE(G$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D9),TIMEVALUE(H$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D9),TIMEVALUE(I$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D9),TIMEVALUE(J$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D9),TIMEVALUE(K$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D9),TIMEVALUE(L$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D9),TIMEVALUE(M$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N9" s="10" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D9),TIMEVALUE(N$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="str">
+        <f aca="false">IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D10),TIMEVALUE(F$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D10),TIMEVALUE(G$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D10),TIMEVALUE(H$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D10),TIMEVALUE(I$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D10),TIMEVALUE(J$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D10),TIMEVALUE(K$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D10),TIMEVALUE(L$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D10),TIMEVALUE(M$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N10" s="10" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D10),TIMEVALUE(N$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="str">
+        <f aca="false">IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D11),TIMEVALUE(F$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D11),TIMEVALUE(G$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D11),TIMEVALUE(H$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D11),TIMEVALUE(I$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D11),TIMEVALUE(J$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D11),TIMEVALUE(K$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D11),TIMEVALUE(L$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D11),TIMEVALUE(M$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N11" s="10" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D11),TIMEVALUE(N$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="str">
+        <f aca="false">IF($B12&lt;&gt;"",AND($D12&lt;&gt;"",$E12&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D12),TIMEVALUE(F$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D12),TIMEVALUE(G$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D12),TIMEVALUE(H$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D12),TIMEVALUE(I$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D12),TIMEVALUE(J$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D12),TIMEVALUE(K$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D12),TIMEVALUE(L$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D12),TIMEVALUE(M$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N12" s="10" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D12),TIMEVALUE(N$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="str">
+        <f aca="false">IF($B13&lt;&gt;"",AND($D13&lt;&gt;"",$E13&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D13),TIMEVALUE(F$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D13),TIMEVALUE(G$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D13),TIMEVALUE(H$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D13),TIMEVALUE(I$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D13),TIMEVALUE(J$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D13),TIMEVALUE(K$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D13),TIMEVALUE(L$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D13),TIMEVALUE(M$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N13" s="10" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D13),TIMEVALUE(N$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="str">
+        <f aca="false">IF($B14&lt;&gt;"",AND($D14&lt;&gt;"",$E14&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D14),TIMEVALUE(F$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D14),TIMEVALUE(G$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D14),TIMEVALUE(H$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D14),TIMEVALUE(I$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D14),TIMEVALUE(J$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D14),TIMEVALUE(K$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D14),TIMEVALUE(L$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D14),TIMEVALUE(M$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N14" s="10" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D14),TIMEVALUE(N$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="str">
+        <f aca="false">IF($B15&lt;&gt;"",AND($D15&lt;&gt;"",$E15&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D15),TIMEVALUE(F$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D15),TIMEVALUE(G$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D15),TIMEVALUE(H$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D15),TIMEVALUE(I$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D15),TIMEVALUE(J$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D15),TIMEVALUE(K$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D15),TIMEVALUE(L$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D15),TIMEVALUE(M$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N15" s="10" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D15),TIMEVALUE(N$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="str">
+        <f aca="false">IF($B16&lt;&gt;"",AND($D16&lt;&gt;"",$E16&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D16),TIMEVALUE(F$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D16),TIMEVALUE(G$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D16),TIMEVALUE(H$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D16),TIMEVALUE(I$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D16),TIMEVALUE(J$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D16),TIMEVALUE(K$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D16),TIMEVALUE(L$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D16),TIMEVALUE(M$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N16" s="10" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D16),TIMEVALUE(N$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="str">
+        <f aca="false">IF($B17&lt;&gt;"",AND($D17&lt;&gt;"",$E17&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D17),TIMEVALUE(F$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D17),TIMEVALUE(G$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D17),TIMEVALUE(H$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D17),TIMEVALUE(I$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D17),TIMEVALUE(J$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D17),TIMEVALUE(K$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D17),TIMEVALUE(L$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D17),TIMEVALUE(M$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N17" s="10" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D17),TIMEVALUE(N$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11" t="str">
+        <f aca="false">IF($B18&lt;&gt;"",AND($D18&lt;&gt;"",$E18&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D18),TIMEVALUE(F$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D18),TIMEVALUE(G$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D18),TIMEVALUE(H$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D18),TIMEVALUE(I$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D18),TIMEVALUE(J$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D18),TIMEVALUE(K$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D18),TIMEVALUE(L$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D18),TIMEVALUE(M$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N18" s="10" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D18),TIMEVALUE(N$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:N18">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/test/schedule.xlsx
+++ b/test/schedule.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="schedule" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="schedule2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="schedule3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Int</t>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
@@ -51,6 +52,27 @@
     <t xml:space="preserve">割り当て可能ロボット総数</t>
   </si>
   <si>
+    <t xml:space="preserve">blocktime_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スケジュール割当禁止開始時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocktime_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スケジュール割当禁止終了時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocktime_dow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スケジュール割当禁止を設定するシート名</t>
+  </si>
+  <si>
     <t xml:space="preserve">jobname</t>
   </si>
   <si>
@@ -121,16 +143,44 @@
   </si>
   <si>
     <t xml:space="preserve">スケジュール10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="h:mm"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -155,12 +205,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF30BA78"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -295,8 +351,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,15 +376,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,15 +392,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,11 +408,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,12 +420,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -437,7 +509,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF30BA78"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -450,17 +522,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="D4:E4 B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.11328125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
   </cols>
@@ -502,6 +574,39 @@
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -516,903 +621,903 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="D4:E4 F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.11328125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H2" s="12" t="n">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="12" t="n">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <f aca="false">IF($B3&lt;&gt;"",AND($D3&lt;&gt;"",$E3&lt;&gt;""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="C4" s="13" t="n">
+        <f aca="false">IF($B4&lt;&gt;"",AND($D4&lt;&gt;"",$E4&lt;&gt;""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="E5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="G2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="H2" s="10" t="n">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="K2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="L2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="M2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="N2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="11" t="n">
+      <c r="F5" s="12" t="n">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D5),TIMEVALUE(F$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D5),TIMEVALUE(G$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D5),TIMEVALUE(H$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D5),TIMEVALUE(I$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D5),TIMEVALUE(J$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D5),TIMEVALUE(K$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D5),TIMEVALUE(L$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D5),TIMEVALUE(M$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D5),TIMEVALUE(N$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <f aca="false">IF($B3&lt;&gt;"",AND($D3&lt;&gt;"",$E3&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-      <c r="G3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-      <c r="H3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-      <c r="I3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-      <c r="N3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="C6" s="13" t="n">
+        <f aca="false">IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="n">
-        <f aca="false">IF($B4&lt;&gt;"",AND($D4&lt;&gt;"",$E4&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="G4" s="10" t="n">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="J4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="K4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="L4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="M4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="N4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="n">
-        <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D5),TIMEVALUE(F$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D5),TIMEVALUE(G$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D5),TIMEVALUE(H$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v/>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D5),TIMEVALUE(I$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v/>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D5),TIMEVALUE(J$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v/>
-      </c>
-      <c r="K5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D5),TIMEVALUE(K$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v/>
-      </c>
-      <c r="L5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D5),TIMEVALUE(L$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v/>
-      </c>
-      <c r="M5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D5),TIMEVALUE(M$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v/>
-      </c>
-      <c r="N5" s="10" t="str">
-        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D5),TIMEVALUE(N$1)&lt;TIMEVALUE($E5)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="11" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="11" t="n">
-        <f aca="false">IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D6),TIMEVALUE(F$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="G6" s="10" t="str">
+      <c r="G6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D6),TIMEVALUE(G$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D6),TIMEVALUE(H$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D6),TIMEVALUE(I$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="12" t="n">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D6),TIMEVALUE(J$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="12" t="n">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D6),TIMEVALUE(K$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v>1</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="12" t="n">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D6),TIMEVALUE(L$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v>1</v>
       </c>
-      <c r="M6" s="10" t="n">
+      <c r="M6" s="12" t="n">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D6),TIMEVALUE(M$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v>1</v>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D6),TIMEVALUE(N$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11" t="n">
+      <c r="A7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="13" t="n">
         <v>45</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="13" t="n">
         <f aca="false">IF($B7&lt;&gt;"",AND($D7&lt;&gt;"",$E7&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10" t="str">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D7),TIMEVALUE(F$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D7),TIMEVALUE(G$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D7),TIMEVALUE(H$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D7),TIMEVALUE(I$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D7),TIMEVALUE(J$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D7),TIMEVALUE(K$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D7),TIMEVALUE(L$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D7),TIMEVALUE(M$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="N7" s="10" t="str">
+      <c r="N7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D7),TIMEVALUE(N$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="11" t="n">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="13" t="n">
         <f aca="false">IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10" t="str">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D8),TIMEVALUE(F$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D8),TIMEVALUE(G$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D8),TIMEVALUE(H$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D8),TIMEVALUE(I$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D8),TIMEVALUE(J$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D8),TIMEVALUE(K$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D8),TIMEVALUE(L$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D8),TIMEVALUE(M$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="N8" s="10" t="str">
+      <c r="N8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D8),TIMEVALUE(N$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11" t="n">
+      <c r="A9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="13" t="n">
         <f aca="false">IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="10" t="str">
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D9),TIMEVALUE(F$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D9),TIMEVALUE(G$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D9),TIMEVALUE(H$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D9),TIMEVALUE(I$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D9),TIMEVALUE(J$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="K9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D9),TIMEVALUE(K$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D9),TIMEVALUE(L$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D9),TIMEVALUE(M$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="N9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D9),TIMEVALUE(N$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="11" t="n">
+      <c r="A10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="13" t="n">
         <f aca="false">IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10" t="str">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D10),TIMEVALUE(F$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D10),TIMEVALUE(G$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D10),TIMEVALUE(H$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D10),TIMEVALUE(I$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D10),TIMEVALUE(J$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D10),TIMEVALUE(K$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D10),TIMEVALUE(L$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D10),TIMEVALUE(M$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D10),TIMEVALUE(N$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="11" t="n">
+      <c r="A11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="13" t="n">
         <f aca="false">IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="10" t="str">
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D11),TIMEVALUE(F$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D11),TIMEVALUE(G$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D11),TIMEVALUE(H$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D11),TIMEVALUE(I$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D11),TIMEVALUE(J$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D11),TIMEVALUE(K$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D11),TIMEVALUE(L$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D11),TIMEVALUE(M$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="N11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D11),TIMEVALUE(N$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="str">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="str">
         <f aca="false">IF($B12&lt;&gt;"",AND($D12&lt;&gt;"",$E12&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="10" t="str">
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D12),TIMEVALUE(F$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D12),TIMEVALUE(G$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D12),TIMEVALUE(H$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D12),TIMEVALUE(I$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D12),TIMEVALUE(J$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D12),TIMEVALUE(K$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D12),TIMEVALUE(L$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D12),TIMEVALUE(M$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="N12" s="10" t="str">
+      <c r="N12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D12),TIMEVALUE(N$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="str">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="str">
         <f aca="false">IF($B13&lt;&gt;"",AND($D13&lt;&gt;"",$E13&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10" t="str">
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D13),TIMEVALUE(F$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D13),TIMEVALUE(G$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D13),TIMEVALUE(H$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="I13" s="10" t="str">
+      <c r="I13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D13),TIMEVALUE(I$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D13),TIMEVALUE(J$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="K13" s="10" t="str">
+      <c r="K13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D13),TIMEVALUE(K$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D13),TIMEVALUE(L$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D13),TIMEVALUE(M$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="N13" s="10" t="str">
+      <c r="N13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D13),TIMEVALUE(N$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="str">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="str">
         <f aca="false">IF($B14&lt;&gt;"",AND($D14&lt;&gt;"",$E14&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10" t="str">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D14),TIMEVALUE(F$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D14),TIMEVALUE(G$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D14),TIMEVALUE(H$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="I14" s="10" t="str">
+      <c r="I14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D14),TIMEVALUE(I$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D14),TIMEVALUE(J$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="K14" s="10" t="str">
+      <c r="K14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D14),TIMEVALUE(K$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D14),TIMEVALUE(L$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="M14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D14),TIMEVALUE(M$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="N14" s="10" t="str">
+      <c r="N14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D14),TIMEVALUE(N$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="str">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="str">
         <f aca="false">IF($B15&lt;&gt;"",AND($D15&lt;&gt;"",$E15&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10" t="str">
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D15),TIMEVALUE(F$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D15),TIMEVALUE(G$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="H15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D15),TIMEVALUE(H$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="I15" s="10" t="str">
+      <c r="I15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D15),TIMEVALUE(I$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D15),TIMEVALUE(J$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="K15" s="10" t="str">
+      <c r="K15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D15),TIMEVALUE(K$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D15),TIMEVALUE(L$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D15),TIMEVALUE(M$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="N15" s="10" t="str">
+      <c r="N15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D15),TIMEVALUE(N$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="str">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="str">
         <f aca="false">IF($B16&lt;&gt;"",AND($D16&lt;&gt;"",$E16&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10" t="str">
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D16),TIMEVALUE(F$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="G16" s="10" t="str">
+      <c r="G16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D16),TIMEVALUE(G$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D16),TIMEVALUE(H$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="I16" s="10" t="str">
+      <c r="I16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D16),TIMEVALUE(I$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="J16" s="10" t="str">
+      <c r="J16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D16),TIMEVALUE(J$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="K16" s="10" t="str">
+      <c r="K16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D16),TIMEVALUE(K$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D16),TIMEVALUE(L$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="M16" s="10" t="str">
+      <c r="M16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D16),TIMEVALUE(M$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="N16" s="10" t="str">
+      <c r="N16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D16),TIMEVALUE(N$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="str">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="str">
         <f aca="false">IF($B17&lt;&gt;"",AND($D17&lt;&gt;"",$E17&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="10" t="str">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D17),TIMEVALUE(F$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="G17" s="10" t="str">
+      <c r="G17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D17),TIMEVALUE(G$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D17),TIMEVALUE(H$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="I17" s="10" t="str">
+      <c r="I17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D17),TIMEVALUE(I$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="J17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D17),TIMEVALUE(J$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="K17" s="10" t="str">
+      <c r="K17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D17),TIMEVALUE(K$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D17),TIMEVALUE(L$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D17),TIMEVALUE(M$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="N17" s="10" t="str">
+      <c r="N17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D17),TIMEVALUE(N$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11" t="str">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="str">
         <f aca="false">IF($B18&lt;&gt;"",AND($D18&lt;&gt;"",$E18&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="10" t="str">
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D18),TIMEVALUE(F$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="G18" s="10" t="str">
+      <c r="G18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D18),TIMEVALUE(G$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D18),TIMEVALUE(H$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D18),TIMEVALUE(I$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D18),TIMEVALUE(J$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="K18" s="10" t="str">
+      <c r="K18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D18),TIMEVALUE(K$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D18),TIMEVALUE(L$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="M18" s="10" t="str">
+      <c r="M18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D18),TIMEVALUE(M$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="N18" s="10" t="str">
+      <c r="N18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D18),TIMEVALUE(N$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
@@ -1434,869 +1539,869 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4:E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.11328125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="F2" s="12" t="n">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="n">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="I2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="J2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="K2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="L2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="M2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-      <c r="N2" s="10" t="str">
-        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="11" t="n">
+      <c r="C3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-      <c r="G3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="10" t="n">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-      <c r="N3" s="10" t="str">
-        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11" t="n">
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="C4" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="G4" s="10" t="n">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="10" t="n">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="10" t="n">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-      <c r="N4" s="10" t="str">
-        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="13" t="n">
         <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="10" t="str">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D5),TIMEVALUE(F$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
-      <c r="G5" s="10" t="str">
+      <c r="G5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D5),TIMEVALUE(G$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
-      <c r="H5" s="10" t="str">
+      <c r="H5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D5),TIMEVALUE(H$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="I5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D5),TIMEVALUE(I$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D5),TIMEVALUE(J$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
-      <c r="K5" s="10" t="str">
+      <c r="K5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D5),TIMEVALUE(K$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
-      <c r="L5" s="10" t="str">
+      <c r="L5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D5),TIMEVALUE(L$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D5),TIMEVALUE(M$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
-      <c r="N5" s="10" t="str">
+      <c r="N5" s="12" t="str">
         <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D5),TIMEVALUE(N$1)&lt;TIMEVALUE($E5)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="str">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="str">
         <f aca="false">IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="10" t="str">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D6),TIMEVALUE(F$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="G6" s="10" t="str">
+      <c r="G6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D6),TIMEVALUE(G$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D6),TIMEVALUE(H$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D6),TIMEVALUE(I$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D6),TIMEVALUE(J$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D6),TIMEVALUE(K$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D6),TIMEVALUE(L$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D6),TIMEVALUE(M$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="12" t="str">
         <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D6),TIMEVALUE(N$1)&lt;TIMEVALUE($E6)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="str">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="str">
         <f aca="false">IF($B7&lt;&gt;"",AND($D7&lt;&gt;"",$E7&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10" t="str">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D7),TIMEVALUE(F$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D7),TIMEVALUE(G$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D7),TIMEVALUE(H$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D7),TIMEVALUE(I$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D7),TIMEVALUE(J$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D7),TIMEVALUE(K$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D7),TIMEVALUE(L$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D7),TIMEVALUE(M$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
-      <c r="N7" s="10" t="str">
+      <c r="N7" s="12" t="str">
         <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D7),TIMEVALUE(N$1)&lt;TIMEVALUE($E7)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="str">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="str">
         <f aca="false">IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10" t="str">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D8),TIMEVALUE(F$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D8),TIMEVALUE(G$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D8),TIMEVALUE(H$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D8),TIMEVALUE(I$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D8),TIMEVALUE(J$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D8),TIMEVALUE(K$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D8),TIMEVALUE(L$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D8),TIMEVALUE(M$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
-      <c r="N8" s="10" t="str">
+      <c r="N8" s="12" t="str">
         <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D8),TIMEVALUE(N$1)&lt;TIMEVALUE($E8)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="str">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="str">
         <f aca="false">IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="10" t="str">
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D9),TIMEVALUE(F$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D9),TIMEVALUE(G$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D9),TIMEVALUE(H$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D9),TIMEVALUE(I$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D9),TIMEVALUE(J$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="K9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D9),TIMEVALUE(K$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D9),TIMEVALUE(L$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D9),TIMEVALUE(M$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="N9" s="12" t="str">
         <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D9),TIMEVALUE(N$1)&lt;TIMEVALUE($E9)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="str">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="str">
         <f aca="false">IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10" t="str">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D10),TIMEVALUE(F$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D10),TIMEVALUE(G$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D10),TIMEVALUE(H$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D10),TIMEVALUE(I$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D10),TIMEVALUE(J$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D10),TIMEVALUE(K$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D10),TIMEVALUE(L$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D10),TIMEVALUE(M$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="12" t="str">
         <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D10),TIMEVALUE(N$1)&lt;TIMEVALUE($E10)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="str">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="str">
         <f aca="false">IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="10" t="str">
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D11),TIMEVALUE(F$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D11),TIMEVALUE(G$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D11),TIMEVALUE(H$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D11),TIMEVALUE(I$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D11),TIMEVALUE(J$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D11),TIMEVALUE(K$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D11),TIMEVALUE(L$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D11),TIMEVALUE(M$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="N11" s="12" t="str">
         <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D11),TIMEVALUE(N$1)&lt;TIMEVALUE($E11)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="str">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="str">
         <f aca="false">IF($B12&lt;&gt;"",AND($D12&lt;&gt;"",$E12&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="10" t="str">
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D12),TIMEVALUE(F$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D12),TIMEVALUE(G$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D12),TIMEVALUE(H$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D12),TIMEVALUE(I$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D12),TIMEVALUE(J$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D12),TIMEVALUE(K$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D12),TIMEVALUE(L$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D12),TIMEVALUE(M$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
-      <c r="N12" s="10" t="str">
+      <c r="N12" s="12" t="str">
         <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D12),TIMEVALUE(N$1)&lt;TIMEVALUE($E12)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="str">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="str">
         <f aca="false">IF($B13&lt;&gt;"",AND($D13&lt;&gt;"",$E13&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10" t="str">
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D13),TIMEVALUE(F$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D13),TIMEVALUE(G$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D13),TIMEVALUE(H$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="I13" s="10" t="str">
+      <c r="I13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D13),TIMEVALUE(I$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D13),TIMEVALUE(J$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="K13" s="10" t="str">
+      <c r="K13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D13),TIMEVALUE(K$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D13),TIMEVALUE(L$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D13),TIMEVALUE(M$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
-      <c r="N13" s="10" t="str">
+      <c r="N13" s="12" t="str">
         <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D13),TIMEVALUE(N$1)&lt;TIMEVALUE($E13)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="str">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="str">
         <f aca="false">IF($B14&lt;&gt;"",AND($D14&lt;&gt;"",$E14&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10" t="str">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D14),TIMEVALUE(F$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D14),TIMEVALUE(G$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D14),TIMEVALUE(H$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="I14" s="10" t="str">
+      <c r="I14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D14),TIMEVALUE(I$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D14),TIMEVALUE(J$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="K14" s="10" t="str">
+      <c r="K14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D14),TIMEVALUE(K$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D14),TIMEVALUE(L$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="M14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D14),TIMEVALUE(M$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
-      <c r="N14" s="10" t="str">
+      <c r="N14" s="12" t="str">
         <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D14),TIMEVALUE(N$1)&lt;TIMEVALUE($E14)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="str">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="str">
         <f aca="false">IF($B15&lt;&gt;"",AND($D15&lt;&gt;"",$E15&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10" t="str">
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D15),TIMEVALUE(F$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D15),TIMEVALUE(G$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="H15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D15),TIMEVALUE(H$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="I15" s="10" t="str">
+      <c r="I15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D15),TIMEVALUE(I$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D15),TIMEVALUE(J$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="K15" s="10" t="str">
+      <c r="K15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D15),TIMEVALUE(K$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D15),TIMEVALUE(L$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D15),TIMEVALUE(M$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
-      <c r="N15" s="10" t="str">
+      <c r="N15" s="12" t="str">
         <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D15),TIMEVALUE(N$1)&lt;TIMEVALUE($E15)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="str">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="str">
         <f aca="false">IF($B16&lt;&gt;"",AND($D16&lt;&gt;"",$E16&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10" t="str">
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D16),TIMEVALUE(F$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="G16" s="10" t="str">
+      <c r="G16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D16),TIMEVALUE(G$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D16),TIMEVALUE(H$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="I16" s="10" t="str">
+      <c r="I16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D16),TIMEVALUE(I$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="J16" s="10" t="str">
+      <c r="J16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D16),TIMEVALUE(J$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="K16" s="10" t="str">
+      <c r="K16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D16),TIMEVALUE(K$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D16),TIMEVALUE(L$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="M16" s="10" t="str">
+      <c r="M16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D16),TIMEVALUE(M$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
-      <c r="N16" s="10" t="str">
+      <c r="N16" s="12" t="str">
         <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D16),TIMEVALUE(N$1)&lt;TIMEVALUE($E16)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="str">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="str">
         <f aca="false">IF($B17&lt;&gt;"",AND($D17&lt;&gt;"",$E17&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="10" t="str">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D17),TIMEVALUE(F$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="G17" s="10" t="str">
+      <c r="G17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D17),TIMEVALUE(G$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D17),TIMEVALUE(H$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="I17" s="10" t="str">
+      <c r="I17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D17),TIMEVALUE(I$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="J17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D17),TIMEVALUE(J$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="K17" s="10" t="str">
+      <c r="K17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D17),TIMEVALUE(K$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D17),TIMEVALUE(L$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D17),TIMEVALUE(M$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
-      <c r="N17" s="10" t="str">
+      <c r="N17" s="12" t="str">
         <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D17),TIMEVALUE(N$1)&lt;TIMEVALUE($E17)),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11" t="str">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="str">
         <f aca="false">IF($B18&lt;&gt;"",AND($D18&lt;&gt;"",$E18&lt;&gt;""),"")</f>
         <v/>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="10" t="str">
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D18),TIMEVALUE(F$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="G18" s="10" t="str">
+      <c r="G18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D18),TIMEVALUE(G$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D18),TIMEVALUE(H$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D18),TIMEVALUE(I$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D18),TIMEVALUE(J$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="K18" s="10" t="str">
+      <c r="K18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D18),TIMEVALUE(K$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D18),TIMEVALUE(L$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="M18" s="10" t="str">
+      <c r="M18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D18),TIMEVALUE(M$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
-      <c r="N18" s="10" t="str">
+      <c r="N18" s="12" t="str">
         <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D18),TIMEVALUE(N$1)&lt;TIMEVALUE($E18)),1,""))</f>
         <v/>
       </c>
@@ -2309,7 +2414,874 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.11328125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H2" s="20" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I2" s="20" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="20" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="20" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="20" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D5),TIMEVALUE(F$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D5),TIMEVALUE(G$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H5" s="20" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D5),TIMEVALUE(H$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I5" s="20" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D5),TIMEVALUE(I$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D5),TIMEVALUE(J$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D5),TIMEVALUE(K$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D5),TIMEVALUE(L$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D5),TIMEVALUE(M$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D5),TIMEVALUE(N$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D6),TIMEVALUE(F$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D6),TIMEVALUE(G$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D6),TIMEVALUE(H$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D6),TIMEVALUE(I$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D6),TIMEVALUE(J$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D6),TIMEVALUE(K$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D6),TIMEVALUE(L$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D6),TIMEVALUE(M$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D6),TIMEVALUE(N$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D7),TIMEVALUE(F$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D7),TIMEVALUE(G$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D7),TIMEVALUE(H$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D7),TIMEVALUE(I$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D7),TIMEVALUE(J$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D7),TIMEVALUE(K$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D7),TIMEVALUE(L$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D7),TIMEVALUE(M$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D7),TIMEVALUE(N$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="str">
+        <f aca="false">IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D8),TIMEVALUE(F$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D8),TIMEVALUE(G$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D8),TIMEVALUE(H$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D8),TIMEVALUE(I$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D8),TIMEVALUE(J$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D8),TIMEVALUE(K$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D8),TIMEVALUE(L$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D8),TIMEVALUE(M$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D8),TIMEVALUE(N$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="str">
+        <f aca="false">IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D9),TIMEVALUE(F$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D9),TIMEVALUE(G$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D9),TIMEVALUE(H$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D9),TIMEVALUE(I$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D9),TIMEVALUE(J$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D9),TIMEVALUE(K$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D9),TIMEVALUE(L$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D9),TIMEVALUE(M$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D9),TIMEVALUE(N$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="str">
+        <f aca="false">IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D10),TIMEVALUE(F$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D10),TIMEVALUE(G$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D10),TIMEVALUE(H$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D10),TIMEVALUE(I$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D10),TIMEVALUE(J$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D10),TIMEVALUE(K$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D10),TIMEVALUE(L$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D10),TIMEVALUE(M$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D10),TIMEVALUE(N$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="str">
+        <f aca="false">IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D11),TIMEVALUE(F$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D11),TIMEVALUE(G$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D11),TIMEVALUE(H$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D11),TIMEVALUE(I$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D11),TIMEVALUE(J$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D11),TIMEVALUE(K$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D11),TIMEVALUE(L$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D11),TIMEVALUE(M$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D11),TIMEVALUE(N$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="str">
+        <f aca="false">IF($B12&lt;&gt;"",AND($D12&lt;&gt;"",$E12&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D12),TIMEVALUE(F$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D12),TIMEVALUE(G$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D12),TIMEVALUE(H$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D12),TIMEVALUE(I$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D12),TIMEVALUE(J$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D12),TIMEVALUE(K$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D12),TIMEVALUE(L$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D12),TIMEVALUE(M$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D12),TIMEVALUE(N$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="str">
+        <f aca="false">IF($B13&lt;&gt;"",AND($D13&lt;&gt;"",$E13&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D13),TIMEVALUE(F$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D13),TIMEVALUE(G$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D13),TIMEVALUE(H$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D13),TIMEVALUE(I$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D13),TIMEVALUE(J$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D13),TIMEVALUE(K$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D13),TIMEVALUE(L$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D13),TIMEVALUE(M$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D13),TIMEVALUE(N$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="str">
+        <f aca="false">IF($B14&lt;&gt;"",AND($D14&lt;&gt;"",$E14&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D14),TIMEVALUE(F$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D14),TIMEVALUE(G$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D14),TIMEVALUE(H$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D14),TIMEVALUE(I$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D14),TIMEVALUE(J$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D14),TIMEVALUE(K$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D14),TIMEVALUE(L$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D14),TIMEVALUE(M$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D14),TIMEVALUE(N$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="str">
+        <f aca="false">IF($B15&lt;&gt;"",AND($D15&lt;&gt;"",$E15&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D15),TIMEVALUE(F$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D15),TIMEVALUE(G$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D15),TIMEVALUE(H$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D15),TIMEVALUE(I$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D15),TIMEVALUE(J$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D15),TIMEVALUE(K$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D15),TIMEVALUE(L$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D15),TIMEVALUE(M$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D15),TIMEVALUE(N$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="str">
+        <f aca="false">IF($B16&lt;&gt;"",AND($D16&lt;&gt;"",$E16&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D16),TIMEVALUE(F$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D16),TIMEVALUE(G$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D16),TIMEVALUE(H$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D16),TIMEVALUE(I$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D16),TIMEVALUE(J$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D16),TIMEVALUE(K$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D16),TIMEVALUE(L$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D16),TIMEVALUE(M$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D16),TIMEVALUE(N$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="str">
+        <f aca="false">IF($B17&lt;&gt;"",AND($D17&lt;&gt;"",$E17&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D17),TIMEVALUE(F$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D17),TIMEVALUE(G$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D17),TIMEVALUE(H$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D17),TIMEVALUE(I$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D17),TIMEVALUE(J$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D17),TIMEVALUE(K$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D17),TIMEVALUE(L$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D17),TIMEVALUE(M$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D17),TIMEVALUE(N$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="str">
+        <f aca="false">IF($B18&lt;&gt;"",AND($D18&lt;&gt;"",$E18&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D18),TIMEVALUE(F$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D18),TIMEVALUE(G$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D18),TIMEVALUE(H$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D18),TIMEVALUE(I$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D18),TIMEVALUE(J$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D18),TIMEVALUE(K$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D18),TIMEVALUE(L$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D18),TIMEVALUE(M$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D18),TIMEVALUE(N$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:N18">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/test/schedule.xlsx
+++ b/test/schedule.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -529,10 +529,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.11328125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.10546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
   </cols>
@@ -628,10 +628,10 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A5:C5 F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.11328125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.10546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
   </cols>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A5:C5 C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.11328125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.10546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
   </cols>
@@ -2430,10 +2430,10 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.11328125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.10546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
   </cols>
@@ -2639,9 +2639,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
+        <v>0</v>
+      </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
       <c r="F5" s="12" t="str">

--- a/test/schedule.xlsx
+++ b/test/schedule.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="schedule" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="schedule2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="schedule3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="schedule4" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -529,10 +530,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A5:C5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.10546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
   </cols>
@@ -628,10 +629,10 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A5:C5 F9"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.10546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
   </cols>
@@ -1546,10 +1547,10 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A5:C5 C9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.10546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
   </cols>
@@ -2429,11 +2430,11 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A5:C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.10546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
   </cols>
@@ -2487,7 +2488,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" s="13" t="n">
         <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
@@ -2543,14 +2544,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12" t="str">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="n">
         <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G3" s="12" t="n">
         <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
@@ -2564,21 +2565,21 @@
         <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="12" t="str">
         <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="12" t="n">
+        <v/>
+      </c>
+      <c r="K3" s="12" t="str">
         <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="12" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="12" t="str">
         <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="12" t="n">
+        <v/>
+      </c>
+      <c r="M3" s="12" t="str">
         <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N3" s="12" t="str">
         <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
@@ -2596,14 +2597,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12" t="str">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G4" s="12" t="n">
         <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
@@ -2617,21 +2618,21 @@
         <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="12" t="str">
         <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="12" t="n">
+        <v/>
+      </c>
+      <c r="K4" s="12" t="str">
         <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="12" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="12" t="str">
         <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="12" t="str">
         <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N4" s="12" t="str">
         <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
@@ -2643,7 +2644,878 @@
         <v>33</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D5),TIMEVALUE(F$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D5),TIMEVALUE(G$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H5" s="20" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D5),TIMEVALUE(H$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I5" s="20" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D5),TIMEVALUE(I$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D5),TIMEVALUE(J$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D5),TIMEVALUE(K$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D5),TIMEVALUE(L$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D5),TIMEVALUE(M$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f aca="false">IF($D5="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D5),TIMEVALUE(N$1)&lt;TIMEVALUE($E5)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D6),TIMEVALUE(F$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D6),TIMEVALUE(G$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D6),TIMEVALUE(H$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D6),TIMEVALUE(I$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D6),TIMEVALUE(J$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D6),TIMEVALUE(K$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D6),TIMEVALUE(L$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D6),TIMEVALUE(M$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f aca="false">IF($D6="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D6),TIMEVALUE(N$1)&lt;TIMEVALUE($E6)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D7),TIMEVALUE(F$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D7),TIMEVALUE(G$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D7),TIMEVALUE(H$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D7),TIMEVALUE(I$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D7),TIMEVALUE(J$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D7),TIMEVALUE(K$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D7),TIMEVALUE(M$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f aca="false">IF($D7="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D7),TIMEVALUE(N$1)&lt;TIMEVALUE($E7)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="str">
+        <f aca="false">IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D8),TIMEVALUE(F$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D8),TIMEVALUE(G$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D8),TIMEVALUE(H$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D8),TIMEVALUE(I$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D8),TIMEVALUE(J$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D8),TIMEVALUE(K$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D8),TIMEVALUE(L$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D8),TIMEVALUE(M$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f aca="false">IF($D8="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D8),TIMEVALUE(N$1)&lt;TIMEVALUE($E8)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="str">
+        <f aca="false">IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D9),TIMEVALUE(F$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D9),TIMEVALUE(G$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D9),TIMEVALUE(H$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D9),TIMEVALUE(I$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D9),TIMEVALUE(J$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D9),TIMEVALUE(K$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D9),TIMEVALUE(L$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D9),TIMEVALUE(M$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f aca="false">IF($D9="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D9),TIMEVALUE(N$1)&lt;TIMEVALUE($E9)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="str">
+        <f aca="false">IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D10),TIMEVALUE(F$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D10),TIMEVALUE(G$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D10),TIMEVALUE(H$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D10),TIMEVALUE(I$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D10),TIMEVALUE(J$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D10),TIMEVALUE(K$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D10),TIMEVALUE(L$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D10),TIMEVALUE(M$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f aca="false">IF($D10="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D10),TIMEVALUE(N$1)&lt;TIMEVALUE($E10)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="str">
+        <f aca="false">IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D11),TIMEVALUE(F$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D11),TIMEVALUE(G$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D11),TIMEVALUE(H$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D11),TIMEVALUE(I$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D11),TIMEVALUE(J$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D11),TIMEVALUE(K$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D11),TIMEVALUE(L$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D11),TIMEVALUE(M$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f aca="false">IF($D11="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D11),TIMEVALUE(N$1)&lt;TIMEVALUE($E11)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="str">
+        <f aca="false">IF($B12&lt;&gt;"",AND($D12&lt;&gt;"",$E12&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D12),TIMEVALUE(F$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D12),TIMEVALUE(G$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D12),TIMEVALUE(H$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D12),TIMEVALUE(I$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D12),TIMEVALUE(J$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D12),TIMEVALUE(K$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D12),TIMEVALUE(L$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D12),TIMEVALUE(M$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f aca="false">IF($D12="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D12),TIMEVALUE(N$1)&lt;TIMEVALUE($E12)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="str">
+        <f aca="false">IF($B13&lt;&gt;"",AND($D13&lt;&gt;"",$E13&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D13),TIMEVALUE(F$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D13),TIMEVALUE(G$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D13),TIMEVALUE(H$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D13),TIMEVALUE(I$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D13),TIMEVALUE(J$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D13),TIMEVALUE(K$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D13),TIMEVALUE(L$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D13),TIMEVALUE(M$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f aca="false">IF($D13="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D13),TIMEVALUE(N$1)&lt;TIMEVALUE($E13)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="str">
+        <f aca="false">IF($B14&lt;&gt;"",AND($D14&lt;&gt;"",$E14&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D14),TIMEVALUE(F$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D14),TIMEVALUE(G$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D14),TIMEVALUE(H$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D14),TIMEVALUE(I$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D14),TIMEVALUE(J$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D14),TIMEVALUE(K$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D14),TIMEVALUE(L$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D14),TIMEVALUE(M$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N14" s="12" t="str">
+        <f aca="false">IF($D14="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D14),TIMEVALUE(N$1)&lt;TIMEVALUE($E14)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="str">
+        <f aca="false">IF($B15&lt;&gt;"",AND($D15&lt;&gt;"",$E15&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D15),TIMEVALUE(F$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D15),TIMEVALUE(G$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D15),TIMEVALUE(H$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D15),TIMEVALUE(I$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D15),TIMEVALUE(J$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D15),TIMEVALUE(K$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D15),TIMEVALUE(L$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D15),TIMEVALUE(M$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f aca="false">IF($D15="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D15),TIMEVALUE(N$1)&lt;TIMEVALUE($E15)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="str">
+        <f aca="false">IF($B16&lt;&gt;"",AND($D16&lt;&gt;"",$E16&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D16),TIMEVALUE(F$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D16),TIMEVALUE(G$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D16),TIMEVALUE(H$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D16),TIMEVALUE(I$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D16),TIMEVALUE(J$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D16),TIMEVALUE(K$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D16),TIMEVALUE(L$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D16),TIMEVALUE(M$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f aca="false">IF($D16="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D16),TIMEVALUE(N$1)&lt;TIMEVALUE($E16)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="str">
+        <f aca="false">IF($B17&lt;&gt;"",AND($D17&lt;&gt;"",$E17&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D17),TIMEVALUE(F$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D17),TIMEVALUE(G$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D17),TIMEVALUE(H$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D17),TIMEVALUE(I$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D17),TIMEVALUE(J$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D17),TIMEVALUE(K$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D17),TIMEVALUE(L$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D17),TIMEVALUE(M$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N17" s="12" t="str">
+        <f aca="false">IF($D17="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D17),TIMEVALUE(N$1)&lt;TIMEVALUE($E17)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="str">
+        <f aca="false">IF($B18&lt;&gt;"",AND($D18&lt;&gt;"",$E18&lt;&gt;""),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D18),TIMEVALUE(F$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D18),TIMEVALUE(G$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D18),TIMEVALUE(H$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D18),TIMEVALUE(I$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D18),TIMEVALUE(J$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D18),TIMEVALUE(K$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D18),TIMEVALUE(L$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D18),TIMEVALUE(M$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N18" s="12" t="str">
+        <f aca="false">IF($D18="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D18),TIMEVALUE(N$1)&lt;TIMEVALUE($E18)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:N18">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.09765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D2),TIMEVALUE(F$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="G2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D2),TIMEVALUE(G$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="H2" s="20" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D2),TIMEVALUE(H$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="I2" s="20" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D2),TIMEVALUE(I$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="J2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D2),TIMEVALUE(J$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D2),TIMEVALUE(K$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D2),TIMEVALUE(L$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D2),TIMEVALUE(M$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N2" s="12" t="str">
+        <f aca="false">IF($D2="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D2),TIMEVALUE(N$1)&lt;TIMEVALUE($E2)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D3),TIMEVALUE(F$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D3),TIMEVALUE(G$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="20" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D3),TIMEVALUE(H$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="n">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D3),TIMEVALUE(I$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D3),TIMEVALUE(J$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D3),TIMEVALUE(K$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D3),TIMEVALUE(L$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D3),TIMEVALUE(M$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f aca="false">IF($D3="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D3),TIMEVALUE(N$1)&lt;TIMEVALUE($E3)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(F$1)&gt;=TIMEVALUE($D4),TIMEVALUE(F$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(G$1)&gt;=TIMEVALUE($D4),TIMEVALUE(G$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="20" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(H$1)&gt;=TIMEVALUE($D4),TIMEVALUE(H$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="20" t="n">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(I$1)&gt;=TIMEVALUE($D4),TIMEVALUE(I$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(J$1)&gt;=TIMEVALUE($D4),TIMEVALUE(J$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(K$1)&gt;=TIMEVALUE($D4),TIMEVALUE(K$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(L$1)&gt;=TIMEVALUE($D4),TIMEVALUE(L$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(M$1)&gt;=TIMEVALUE($D4),TIMEVALUE(M$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f aca="false">IF($D4="","",IF(AND(TIMEVALUE(N$1)&gt;=TIMEVALUE($D4),TIMEVALUE(N$1)&lt;TIMEVALUE($E4)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>30</v>
       </c>
       <c r="C5" s="13" t="n">
         <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
